--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Jag1-Notch3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Jag1-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.0114811187287</v>
+        <v>18.78268133333334</v>
       </c>
       <c r="H2">
-        <v>18.0114811187287</v>
+        <v>56.34804400000001</v>
       </c>
       <c r="I2">
-        <v>0.2863302076050462</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="J2">
-        <v>0.2863302076050462</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.49790693918736</v>
+        <v>3.884573333333333</v>
       </c>
       <c r="N2">
-        <v>3.49790693918736</v>
+        <v>11.65372</v>
       </c>
       <c r="O2">
-        <v>0.08802624775124129</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="P2">
-        <v>0.08802624775124129</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="Q2">
-        <v>63.00248479024323</v>
+        <v>72.96270303596445</v>
       </c>
       <c r="R2">
-        <v>63.00248479024323</v>
+        <v>656.6643273236801</v>
       </c>
       <c r="S2">
-        <v>0.02520457379330615</v>
+        <v>0.02709377469317142</v>
       </c>
       <c r="T2">
-        <v>0.02520457379330615</v>
+        <v>0.02709377469317142</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.0114811187287</v>
+        <v>18.78268133333334</v>
       </c>
       <c r="H3">
-        <v>18.0114811187287</v>
+        <v>56.34804400000001</v>
       </c>
       <c r="I3">
-        <v>0.2863302076050462</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="J3">
-        <v>0.2863302076050462</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.61940000434991</v>
+        <v>6.662909</v>
       </c>
       <c r="N3">
-        <v>6.61940000434991</v>
+        <v>19.988727</v>
       </c>
       <c r="O3">
-        <v>0.1665798875949634</v>
+        <v>0.1621041669376684</v>
       </c>
       <c r="P3">
-        <v>0.1665798875949634</v>
+        <v>0.1621041669376685</v>
       </c>
       <c r="Q3">
-        <v>119.2251981956611</v>
+        <v>125.1472964999987</v>
       </c>
       <c r="R3">
-        <v>119.2251981956611</v>
+        <v>1126.325668499988</v>
       </c>
       <c r="S3">
-        <v>0.04769685379789113</v>
+        <v>0.04647186183822095</v>
       </c>
       <c r="T3">
-        <v>0.04769685379789113</v>
+        <v>0.04647186183822096</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.0114811187287</v>
+        <v>18.78268133333334</v>
       </c>
       <c r="H4">
-        <v>18.0114811187287</v>
+        <v>56.34804400000001</v>
       </c>
       <c r="I4">
-        <v>0.2863302076050462</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="J4">
-        <v>0.2863302076050462</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.105794767457187</v>
+        <v>0.04919333333333333</v>
       </c>
       <c r="N4">
-        <v>0.105794767457187</v>
+        <v>0.14758</v>
       </c>
       <c r="O4">
-        <v>0.002662368259898546</v>
+        <v>0.001196841247402154</v>
       </c>
       <c r="P4">
-        <v>0.002662368259898546</v>
+        <v>0.001196841247402154</v>
       </c>
       <c r="Q4">
-        <v>1.905520456515417</v>
+        <v>0.9239827037244446</v>
       </c>
       <c r="R4">
-        <v>1.905520456515417</v>
+        <v>8.315844333520001</v>
       </c>
       <c r="S4">
-        <v>0.0007623164565778365</v>
+        <v>0.0003431092620397811</v>
       </c>
       <c r="T4">
-        <v>0.0007623164565778365</v>
+        <v>0.0003431092620397811</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.0114811187287</v>
+        <v>18.78268133333334</v>
       </c>
       <c r="H5">
-        <v>18.0114811187287</v>
+        <v>56.34804400000001</v>
       </c>
       <c r="I5">
-        <v>0.2863302076050462</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="J5">
-        <v>0.2863302076050462</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.5139884018581</v>
+        <v>0.106491</v>
       </c>
       <c r="N5">
-        <v>29.5139884018581</v>
+        <v>0.319473</v>
       </c>
       <c r="O5">
-        <v>0.7427314963938968</v>
+        <v>0.002590855561941376</v>
       </c>
       <c r="P5">
-        <v>0.7427314963938968</v>
+        <v>0.002590855561941376</v>
       </c>
       <c r="Q5">
-        <v>531.590644838445</v>
+        <v>2.000186517868</v>
       </c>
       <c r="R5">
-        <v>531.590644838445</v>
+        <v>18.001678660812</v>
       </c>
       <c r="S5">
-        <v>0.2126664635572711</v>
+        <v>0.0007427439034532797</v>
       </c>
       <c r="T5">
-        <v>0.2126664635572711</v>
+        <v>0.0007427439034532798</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.3410381817782</v>
+        <v>18.78268133333334</v>
       </c>
       <c r="H6">
-        <v>14.3410381817782</v>
+        <v>56.34804400000001</v>
       </c>
       <c r="I6">
-        <v>0.2279808313815271</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="J6">
-        <v>0.2279808313815271</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.49790693918736</v>
+        <v>30.399472</v>
       </c>
       <c r="N6">
-        <v>3.49790693918736</v>
+        <v>91.19841600000001</v>
       </c>
       <c r="O6">
-        <v>0.08802624775124129</v>
+        <v>0.7395990375832805</v>
       </c>
       <c r="P6">
-        <v>0.08802624775124129</v>
+        <v>0.7395990375832806</v>
       </c>
       <c r="Q6">
-        <v>50.16361697119284</v>
+        <v>570.9835952775895</v>
       </c>
       <c r="R6">
-        <v>50.16361697119284</v>
+        <v>5138.852357498306</v>
       </c>
       <c r="S6">
-        <v>0.02006829714572427</v>
+        <v>0.2120275187217575</v>
       </c>
       <c r="T6">
-        <v>0.02006829714572427</v>
+        <v>0.2120275187217575</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.3410381817782</v>
+        <v>14.452944</v>
       </c>
       <c r="H7">
-        <v>14.3410381817782</v>
+        <v>43.358832</v>
       </c>
       <c r="I7">
-        <v>0.2279808313815271</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="J7">
-        <v>0.2279808313815271</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.61940000434991</v>
+        <v>3.884573333333333</v>
       </c>
       <c r="N7">
-        <v>6.61940000434991</v>
+        <v>11.65372</v>
       </c>
       <c r="O7">
-        <v>0.1665798875949634</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="P7">
-        <v>0.1665798875949634</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="Q7">
-        <v>94.92906820284485</v>
+        <v>56.14352085056</v>
       </c>
       <c r="R7">
-        <v>94.92906820284485</v>
+        <v>505.29168765504</v>
       </c>
       <c r="S7">
-        <v>0.03797702126534109</v>
+        <v>0.02084818463560281</v>
       </c>
       <c r="T7">
-        <v>0.03797702126534109</v>
+        <v>0.02084818463560281</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.3410381817782</v>
+        <v>14.452944</v>
       </c>
       <c r="H8">
-        <v>14.3410381817782</v>
+        <v>43.358832</v>
       </c>
       <c r="I8">
-        <v>0.2279808313815271</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="J8">
-        <v>0.2279808313815271</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.105794767457187</v>
+        <v>6.662909</v>
       </c>
       <c r="N8">
-        <v>0.105794767457187</v>
+        <v>19.988727</v>
       </c>
       <c r="O8">
-        <v>0.002662368259898546</v>
+        <v>0.1621041669376684</v>
       </c>
       <c r="P8">
-        <v>0.002662368259898546</v>
+        <v>0.1621041669376685</v>
       </c>
       <c r="Q8">
-        <v>1.517206799535864</v>
+        <v>96.29865065409601</v>
       </c>
       <c r="R8">
-        <v>1.517206799535864</v>
+        <v>866.687855886864</v>
       </c>
       <c r="S8">
-        <v>0.0006069689293354602</v>
+        <v>0.03575928296944315</v>
       </c>
       <c r="T8">
-        <v>0.0006069689293354602</v>
+        <v>0.03575928296944315</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.3410381817782</v>
+        <v>14.452944</v>
       </c>
       <c r="H9">
-        <v>14.3410381817782</v>
+        <v>43.358832</v>
       </c>
       <c r="I9">
-        <v>0.2279808313815271</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="J9">
-        <v>0.2279808313815271</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>29.5139884018581</v>
+        <v>0.04919333333333333</v>
       </c>
       <c r="N9">
-        <v>29.5139884018581</v>
+        <v>0.14758</v>
       </c>
       <c r="O9">
-        <v>0.7427314963938968</v>
+        <v>0.001196841247402154</v>
       </c>
       <c r="P9">
-        <v>0.7427314963938968</v>
+        <v>0.001196841247402154</v>
       </c>
       <c r="Q9">
-        <v>423.261234567606</v>
+        <v>0.71098849184</v>
       </c>
       <c r="R9">
-        <v>423.261234567606</v>
+        <v>6.398896426559999</v>
       </c>
       <c r="S9">
-        <v>0.1693285440411263</v>
+        <v>0.0002640165619666735</v>
       </c>
       <c r="T9">
-        <v>0.1693285440411263</v>
+        <v>0.0002640165619666735</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.8087334511057</v>
+        <v>14.452944</v>
       </c>
       <c r="H10">
-        <v>19.8087334511057</v>
+        <v>43.358832</v>
       </c>
       <c r="I10">
-        <v>0.3149012967928788</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="J10">
-        <v>0.3149012967928788</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.49790693918736</v>
+        <v>0.106491</v>
       </c>
       <c r="N10">
-        <v>3.49790693918736</v>
+        <v>0.319473</v>
       </c>
       <c r="O10">
-        <v>0.08802624775124129</v>
+        <v>0.002590855561941376</v>
       </c>
       <c r="P10">
-        <v>0.08802624775124129</v>
+        <v>0.002590855561941376</v>
       </c>
       <c r="Q10">
-        <v>69.2891061951354</v>
+        <v>1.539108459504</v>
       </c>
       <c r="R10">
-        <v>69.2891061951354</v>
+        <v>13.851976135536</v>
       </c>
       <c r="S10">
-        <v>0.02771957956867711</v>
+        <v>0.0005715284123944917</v>
       </c>
       <c r="T10">
-        <v>0.02771957956867711</v>
+        <v>0.0005715284123944918</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.8087334511057</v>
+        <v>14.452944</v>
       </c>
       <c r="H11">
-        <v>19.8087334511057</v>
+        <v>43.358832</v>
       </c>
       <c r="I11">
-        <v>0.3149012967928788</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="J11">
-        <v>0.3149012967928788</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.61940000434991</v>
+        <v>30.399472</v>
       </c>
       <c r="N11">
-        <v>6.61940000434991</v>
+        <v>91.19841600000001</v>
       </c>
       <c r="O11">
-        <v>0.1665798875949634</v>
+        <v>0.7395990375832805</v>
       </c>
       <c r="P11">
-        <v>0.1665798875949634</v>
+        <v>0.7395990375832806</v>
       </c>
       <c r="Q11">
-        <v>131.1219302924153</v>
+        <v>439.3618664455681</v>
       </c>
       <c r="R11">
-        <v>131.1219302924153</v>
+        <v>3954.256798010113</v>
       </c>
       <c r="S11">
-        <v>0.05245622262326595</v>
+        <v>0.1631514585250472</v>
       </c>
       <c r="T11">
-        <v>0.05245622262326595</v>
+        <v>0.1631514585250473</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.8087334511057</v>
+        <v>20.02445833333333</v>
       </c>
       <c r="H12">
-        <v>19.8087334511057</v>
+        <v>60.073375</v>
       </c>
       <c r="I12">
-        <v>0.3149012967928788</v>
+        <v>0.3056321809034097</v>
       </c>
       <c r="J12">
-        <v>0.3149012967928788</v>
+        <v>0.3056321809034098</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.105794767457187</v>
+        <v>3.884573333333333</v>
       </c>
       <c r="N12">
-        <v>0.105794767457187</v>
+        <v>11.65372</v>
       </c>
       <c r="O12">
-        <v>0.002662368259898546</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="P12">
-        <v>0.002662368259898546</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="Q12">
-        <v>2.095660349081129</v>
+        <v>77.78647685611111</v>
       </c>
       <c r="R12">
-        <v>2.095660349081129</v>
+        <v>700.078291705</v>
       </c>
       <c r="S12">
-        <v>0.0008383832175822523</v>
+        <v>0.02888502194163823</v>
       </c>
       <c r="T12">
-        <v>0.0008383832175822523</v>
+        <v>0.02888502194163823</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.8087334511057</v>
+        <v>20.02445833333333</v>
       </c>
       <c r="H13">
-        <v>19.8087334511057</v>
+        <v>60.073375</v>
       </c>
       <c r="I13">
-        <v>0.3149012967928788</v>
+        <v>0.3056321809034097</v>
       </c>
       <c r="J13">
-        <v>0.3149012967928788</v>
+        <v>0.3056321809034098</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.5139884018581</v>
+        <v>6.662909</v>
       </c>
       <c r="N13">
-        <v>29.5139884018581</v>
+        <v>19.988727</v>
       </c>
       <c r="O13">
-        <v>0.7427314963938968</v>
+        <v>0.1621041669376684</v>
       </c>
       <c r="P13">
-        <v>0.7427314963938968</v>
+        <v>0.1621041669376685</v>
       </c>
       <c r="Q13">
-        <v>584.6347293314321</v>
+        <v>133.4211436492917</v>
       </c>
       <c r="R13">
-        <v>584.6347293314321</v>
+        <v>1200.790292843625</v>
       </c>
       <c r="S13">
-        <v>0.2338871113833535</v>
+        <v>0.04954425007469001</v>
       </c>
       <c r="T13">
-        <v>0.2338871113833535</v>
+        <v>0.04954425007469002</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.49237852041392</v>
+        <v>20.02445833333333</v>
       </c>
       <c r="H14">
-        <v>5.49237852041392</v>
+        <v>60.073375</v>
       </c>
       <c r="I14">
-        <v>0.0873128573729763</v>
+        <v>0.3056321809034097</v>
       </c>
       <c r="J14">
-        <v>0.0873128573729763</v>
+        <v>0.3056321809034098</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>3.49790693918736</v>
+        <v>0.04919333333333333</v>
       </c>
       <c r="N14">
-        <v>3.49790693918736</v>
+        <v>0.14758</v>
       </c>
       <c r="O14">
-        <v>0.08802624775124129</v>
+        <v>0.001196841247402154</v>
       </c>
       <c r="P14">
-        <v>0.08802624775124129</v>
+        <v>0.001196841247402154</v>
       </c>
       <c r="Q14">
-        <v>19.21182893919946</v>
+        <v>0.985069853611111</v>
       </c>
       <c r="R14">
-        <v>19.21182893919946</v>
+        <v>8.865628682499999</v>
       </c>
       <c r="S14">
-        <v>0.007685823214982406</v>
+        <v>0.0003657932006386775</v>
       </c>
       <c r="T14">
-        <v>0.007685823214982406</v>
+        <v>0.0003657932006386776</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.49237852041392</v>
+        <v>20.02445833333333</v>
       </c>
       <c r="H15">
-        <v>5.49237852041392</v>
+        <v>60.073375</v>
       </c>
       <c r="I15">
-        <v>0.0873128573729763</v>
+        <v>0.3056321809034097</v>
       </c>
       <c r="J15">
-        <v>0.0873128573729763</v>
+        <v>0.3056321809034098</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.61940000434991</v>
+        <v>0.106491</v>
       </c>
       <c r="N15">
-        <v>6.61940000434991</v>
+        <v>0.319473</v>
       </c>
       <c r="O15">
-        <v>0.1665798875949634</v>
+        <v>0.002590855561941376</v>
       </c>
       <c r="P15">
-        <v>0.1665798875949634</v>
+        <v>0.002590855561941376</v>
       </c>
       <c r="Q15">
-        <v>36.35625040191926</v>
+        <v>2.132424592375</v>
       </c>
       <c r="R15">
-        <v>36.35625040191926</v>
+        <v>19.191821331375</v>
       </c>
       <c r="S15">
-        <v>0.01454456596678546</v>
+        <v>0.0007918488358018718</v>
       </c>
       <c r="T15">
-        <v>0.01454456596678546</v>
+        <v>0.0007918488358018721</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.49237852041392</v>
+        <v>20.02445833333333</v>
       </c>
       <c r="H16">
-        <v>5.49237852041392</v>
+        <v>60.073375</v>
       </c>
       <c r="I16">
-        <v>0.0873128573729763</v>
+        <v>0.3056321809034097</v>
       </c>
       <c r="J16">
-        <v>0.0873128573729763</v>
+        <v>0.3056321809034098</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.105794767457187</v>
+        <v>30.399472</v>
       </c>
       <c r="N16">
-        <v>0.105794767457187</v>
+        <v>91.19841600000001</v>
       </c>
       <c r="O16">
-        <v>0.002662368259898546</v>
+        <v>0.7395990375832805</v>
       </c>
       <c r="P16">
-        <v>0.002662368259898546</v>
+        <v>0.7395990375832806</v>
       </c>
       <c r="Q16">
-        <v>0.5810649083540395</v>
+        <v>608.7329604193334</v>
       </c>
       <c r="R16">
-        <v>0.5810649083540395</v>
+        <v>5478.596643774001</v>
       </c>
       <c r="S16">
-        <v>0.0002324589801508609</v>
+        <v>0.2260452668506409</v>
       </c>
       <c r="T16">
-        <v>0.0002324589801508609</v>
+        <v>0.226045266850641</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.49237852041392</v>
+        <v>6.777317666666666</v>
       </c>
       <c r="H17">
-        <v>5.49237852041392</v>
+        <v>20.331953</v>
       </c>
       <c r="I17">
-        <v>0.0873128573729763</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="J17">
-        <v>0.0873128573729763</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.5139884018581</v>
+        <v>3.884573333333333</v>
       </c>
       <c r="N17">
-        <v>29.5139884018581</v>
+        <v>11.65372</v>
       </c>
       <c r="O17">
-        <v>0.7427314963938968</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="P17">
-        <v>0.7427314963938968</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="Q17">
-        <v>162.101995950111</v>
+        <v>26.32698747946222</v>
       </c>
       <c r="R17">
-        <v>162.101995950111</v>
+        <v>236.94288731516</v>
       </c>
       <c r="S17">
-        <v>0.06485000921105757</v>
+        <v>0.009776193005992374</v>
       </c>
       <c r="T17">
-        <v>0.06485000921105757</v>
+        <v>0.009776193005992376</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.25094756854451</v>
+        <v>6.777317666666666</v>
       </c>
       <c r="H18">
-        <v>5.25094756854451</v>
+        <v>20.331953</v>
       </c>
       <c r="I18">
-        <v>0.08347480684757166</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="J18">
-        <v>0.08347480684757166</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.49790693918736</v>
+        <v>6.662909</v>
       </c>
       <c r="N18">
-        <v>3.49790693918736</v>
+        <v>19.988727</v>
       </c>
       <c r="O18">
-        <v>0.08802624775124129</v>
+        <v>0.1621041669376684</v>
       </c>
       <c r="P18">
-        <v>0.08802624775124129</v>
+        <v>0.1621041669376685</v>
       </c>
       <c r="Q18">
-        <v>18.36732593732084</v>
+        <v>45.15665087709232</v>
       </c>
       <c r="R18">
-        <v>18.36732593732084</v>
+        <v>406.409857893831</v>
       </c>
       <c r="S18">
-        <v>0.007347974028551357</v>
+        <v>0.01676834977123965</v>
       </c>
       <c r="T18">
-        <v>0.007347974028551357</v>
+        <v>0.01676834977123965</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.25094756854451</v>
+        <v>6.777317666666666</v>
       </c>
       <c r="H19">
-        <v>5.25094756854451</v>
+        <v>20.331953</v>
       </c>
       <c r="I19">
-        <v>0.08347480684757166</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="J19">
-        <v>0.08347480684757166</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>6.61940000434991</v>
+        <v>0.04919333333333333</v>
       </c>
       <c r="N19">
-        <v>6.61940000434991</v>
+        <v>0.14758</v>
       </c>
       <c r="O19">
-        <v>0.1665798875949634</v>
+        <v>0.001196841247402154</v>
       </c>
       <c r="P19">
-        <v>0.1665798875949634</v>
+        <v>0.001196841247402154</v>
       </c>
       <c r="Q19">
-        <v>34.75812235806468</v>
+        <v>0.3333988470822222</v>
       </c>
       <c r="R19">
-        <v>34.75812235806468</v>
+        <v>3.000589623739999</v>
       </c>
       <c r="S19">
-        <v>0.01390522394167977</v>
+        <v>0.0001238034347679843</v>
       </c>
       <c r="T19">
-        <v>0.01390522394167977</v>
+        <v>0.0001238034347679844</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.25094756854451</v>
+        <v>6.777317666666666</v>
       </c>
       <c r="H20">
-        <v>5.25094756854451</v>
+        <v>20.331953</v>
       </c>
       <c r="I20">
-        <v>0.08347480684757166</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="J20">
-        <v>0.08347480684757166</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.105794767457187</v>
+        <v>0.106491</v>
       </c>
       <c r="N20">
-        <v>0.105794767457187</v>
+        <v>0.319473</v>
       </c>
       <c r="O20">
-        <v>0.002662368259898546</v>
+        <v>0.002590855561941376</v>
       </c>
       <c r="P20">
-        <v>0.002662368259898546</v>
+        <v>0.002590855561941376</v>
       </c>
       <c r="Q20">
-        <v>0.5555227769440479</v>
+        <v>0.7217233356409999</v>
       </c>
       <c r="R20">
-        <v>0.5555227769440479</v>
+        <v>6.495510020768999</v>
       </c>
       <c r="S20">
-        <v>0.0002222406762521366</v>
+        <v>0.0002680028101072792</v>
       </c>
       <c r="T20">
-        <v>0.0002222406762521366</v>
+        <v>0.0002680028101072793</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.25094756854451</v>
+        <v>6.777317666666666</v>
       </c>
       <c r="H21">
-        <v>5.25094756854451</v>
+        <v>20.331953</v>
       </c>
       <c r="I21">
-        <v>0.08347480684757166</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="J21">
-        <v>0.08347480684757166</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>29.5139884018581</v>
+        <v>30.399472</v>
       </c>
       <c r="N21">
-        <v>29.5139884018581</v>
+        <v>91.19841600000001</v>
       </c>
       <c r="O21">
-        <v>0.7427314963938968</v>
+        <v>0.7395990375832805</v>
       </c>
       <c r="P21">
-        <v>0.7427314963938968</v>
+        <v>0.7395990375832806</v>
       </c>
       <c r="Q21">
-        <v>154.9764056367877</v>
+        <v>206.0268786429387</v>
       </c>
       <c r="R21">
-        <v>154.9764056367877</v>
+        <v>1854.241907786448</v>
       </c>
       <c r="S21">
-        <v>0.0619993682010884</v>
+        <v>0.07650546921127185</v>
       </c>
       <c r="T21">
-        <v>0.0619993682010884</v>
+        <v>0.07650546921127188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>5.480759333333334</v>
+      </c>
+      <c r="H22">
+        <v>16.442278</v>
+      </c>
+      <c r="I22">
+        <v>0.08365252134011374</v>
+      </c>
+      <c r="J22">
+        <v>0.08365252134011374</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.884573333333333</v>
+      </c>
+      <c r="N22">
+        <v>11.65372</v>
+      </c>
+      <c r="O22">
+        <v>0.09450909866970746</v>
+      </c>
+      <c r="P22">
+        <v>0.09450909866970746</v>
+      </c>
+      <c r="Q22">
+        <v>21.29041155268445</v>
+      </c>
+      <c r="R22">
+        <v>191.61370397416</v>
+      </c>
+      <c r="S22">
+        <v>0.007905924393302618</v>
+      </c>
+      <c r="T22">
+        <v>0.007905924393302618</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>5.480759333333334</v>
+      </c>
+      <c r="H23">
+        <v>16.442278</v>
+      </c>
+      <c r="I23">
+        <v>0.08365252134011374</v>
+      </c>
+      <c r="J23">
+        <v>0.08365252134011374</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>6.662909</v>
+      </c>
+      <c r="N23">
+        <v>19.988727</v>
+      </c>
+      <c r="O23">
+        <v>0.1621041669376684</v>
+      </c>
+      <c r="P23">
+        <v>0.1621041669376685</v>
+      </c>
+      <c r="Q23">
+        <v>36.51780068890067</v>
+      </c>
+      <c r="R23">
+        <v>328.6602062001061</v>
+      </c>
+      <c r="S23">
+        <v>0.01356042228407467</v>
+      </c>
+      <c r="T23">
+        <v>0.01356042228407467</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>5.480759333333334</v>
+      </c>
+      <c r="H24">
+        <v>16.442278</v>
+      </c>
+      <c r="I24">
+        <v>0.08365252134011374</v>
+      </c>
+      <c r="J24">
+        <v>0.08365252134011374</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.04919333333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.14758</v>
+      </c>
+      <c r="O24">
+        <v>0.001196841247402154</v>
+      </c>
+      <c r="P24">
+        <v>0.001196841247402154</v>
+      </c>
+      <c r="Q24">
+        <v>0.2696168208044445</v>
+      </c>
+      <c r="R24">
+        <v>2.42655138724</v>
+      </c>
+      <c r="S24">
+        <v>0.000100118787989037</v>
+      </c>
+      <c r="T24">
+        <v>0.000100118787989037</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5.480759333333334</v>
+      </c>
+      <c r="H25">
+        <v>16.442278</v>
+      </c>
+      <c r="I25">
+        <v>0.08365252134011374</v>
+      </c>
+      <c r="J25">
+        <v>0.08365252134011374</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.106491</v>
+      </c>
+      <c r="N25">
+        <v>0.319473</v>
+      </c>
+      <c r="O25">
+        <v>0.002590855561941376</v>
+      </c>
+      <c r="P25">
+        <v>0.002590855561941376</v>
+      </c>
+      <c r="Q25">
+        <v>0.5836515421660001</v>
+      </c>
+      <c r="R25">
+        <v>5.252863879494001</v>
+      </c>
+      <c r="S25">
+        <v>0.0002167316001844533</v>
+      </c>
+      <c r="T25">
+        <v>0.0002167316001844533</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5.480759333333334</v>
+      </c>
+      <c r="H26">
+        <v>16.442278</v>
+      </c>
+      <c r="I26">
+        <v>0.08365252134011374</v>
+      </c>
+      <c r="J26">
+        <v>0.08365252134011374</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>30.399472</v>
+      </c>
+      <c r="N26">
+        <v>91.19841600000001</v>
+      </c>
+      <c r="O26">
+        <v>0.7395990375832805</v>
+      </c>
+      <c r="P26">
+        <v>0.7395990375832806</v>
+      </c>
+      <c r="Q26">
+        <v>166.6121898924054</v>
+      </c>
+      <c r="R26">
+        <v>1499.509709031648</v>
+      </c>
+      <c r="S26">
+        <v>0.06186932427456295</v>
+      </c>
+      <c r="T26">
+        <v>0.06186932427456296</v>
       </c>
     </row>
   </sheetData>
